--- a/biology/Botanique/Homalium_letestui/Homalium_letestui.xlsx
+++ b/biology/Botanique/Homalium_letestui/Homalium_letestui.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Homalium letestui est une espèce de plantes à fleurs de la famille des Salicaceae et du genre Homalium. C'est un arbre présent en Afrique tropicale[2].
-Son épithète spécifique letestui rend hommage à l'administrateur colonial et collecteur de plantes Georges Le Testu[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Homalium letestui est une espèce de plantes à fleurs de la famille des Salicaceae et du genre Homalium. C'est un arbre présent en Afrique tropicale.
+Son épithète spécifique letestui rend hommage à l'administrateur colonial et collecteur de plantes Georges Le Testu.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbre pérenne atteignant une hauteur de 30 m. Son long fût droit et élancé peut avoir un diamètre de 30 à 60 cm. Ses jeunes feuilles présentent une nervure médiane et des nervures secondaires pourpre en dessous. Les fleurs en grandes panicules terminales sont d'un rouge vineux. Les fruits sont roses ou rouges[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre pérenne atteignant une hauteur de 30 m. Son long fût droit et élancé peut avoir un diamètre de 30 à 60 cm. Ses jeunes feuilles présentent une nervure médiane et des nervures secondaires pourpre en dessous. Les fleurs en grandes panicules terminales sont d'un rouge vineux. Les fruits sont roses ou rouges.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en Afrique tropicale, du Sénégal au Nigeria et au Cameroun, également plus au sud jusqu'au nord de l'Angola et l'ouest de la république démocratique du Congo[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Afrique tropicale, du Sénégal au Nigeria et au Cameroun, également plus au sud jusqu'au nord de l'Angola et l'ouest de la république démocratique du Congo.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Assez commune, on la rencontre dans la forêt sempervirente et semi-décidue, également dans la forêt galerie et la forêt secondaire, jusqu'à 900 m d'altitude, souvent sur des terrains rocailleux, le long de cours d'eau[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assez commune, on la rencontre dans la forêt sempervirente et semi-décidue, également dans la forêt galerie et la forêt secondaire, jusqu'à 900 m d'altitude, souvent sur des terrains rocailleux, le long de cours d'eau.
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son bois est apprécié pour des utilisations locales grâce à sa solidité et à sa durabilité. On s'en sert pour la construction, les planchers, les poteaux, les traverses de chemin de fer, les bateaux[2].
-En médecine traditionnelle, on administre une décoction d'écorce pour traiter l'orchite. L'écorce grattée entre dans des préparations données aux jeunes accouchées[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son bois est apprécié pour des utilisations locales grâce à sa solidité et à sa durabilité. On s'en sert pour la construction, les planchers, les poteaux, les traverses de chemin de fer, les bateaux.
+En médecine traditionnelle, on administre une décoction d'écorce pour traiter l'orchite. L'écorce grattée entre dans des préparations données aux jeunes accouchées.
 </t>
         </is>
       </c>
